--- a/results/lancet2018/global/1.4 drought/area_in_drought_spi6.xlsx
+++ b/results/lancet2018/global/1.4 drought/area_in_drought_spi6.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>

--- a/results/lancet2018/global/1.4 drought/area_in_drought_spi6.xlsx
+++ b/results/lancet2018/global/1.4 drought/area_in_drought_spi6.xlsx
@@ -27,8 +27,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -74,7 +75,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
